--- a/lta-logic-module/fab runs/lta-logic-v1_0-2022-05-08/LTA Logic module - v1.0 - 2022-05-08 - complete BOM.xlsx
+++ b/lta-logic-module/fab runs/lta-logic-v1_0-2022-05-08/LTA Logic module - v1.0 - 2022-05-08 - complete BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akimb\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akimb\Documents\PCB CAD Projects\like-the-art\lta-logic-module\fab runs\lta-logic-v1_0-2022-05-08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1EE986-2677-4EDA-A461-31C2BAD5E529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE2D8D0-DBD1-48A7-996E-0FFCD97D55E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="1824" windowWidth="24360" windowHeight="10980" xr2:uid="{7666CC16-0BE0-4A4F-AB39-A0A79C1AFDD3}"/>
+    <workbookView xWindow="2484" yWindow="1464" windowWidth="24252" windowHeight="13584" xr2:uid="{7666CC16-0BE0-4A4F-AB39-A0A79C1AFDD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -954,10 +954,10 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
